--- a/test1.xlsx
+++ b/test1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sr.
 No.</t>
@@ -46,19 +46,27 @@
     <t>1234</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>EAPBX</t>
-  </si>
-  <si>
-    <t>2234</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Total:</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>3345</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Total
+(Base cost):</t>
+  </si>
+  <si>
+    <t>GST:</t>
+  </si>
+  <si>
+    <t>Total
+(With GST):</t>
   </si>
 </sst>
 </file>
@@ -93,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -129,15 +137,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>25000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -498,21 +548,44 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3">
-        <v>40000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3">
-        <v>65000</v>
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>301400</v>
       </c>
     </row>
   </sheetData>
